--- a/EventStorming/Event Storming Proyectos.xlsx
+++ b/EventStorming/Event Storming Proyectos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos\Downloads\DOO-working-group\EventStorming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Información\Downloads\DOO-working-group\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDC32FB-A349-4228-BAD1-8FD28FA5F422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66E0AD-B596-4431-AF9A-BB0D86435AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13740" firstSheet="1" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos anémico" sheetId="61" r:id="rId1"/>
@@ -1215,197 +1215,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1972,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34726D-D97C-4DAF-A554-9FD8B7E9C54E}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2000,78 +2000,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="65" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Participante</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Este objeto de dominio me da la informacion de la persona que esta vinculada al proyecto </v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2081,48 +2081,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2135,11 +2135,11 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
@@ -2148,19 +2148,19 @@
       <c r="B7" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="61" t="s">
         <v>156</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="61" t="s">
         <v>153</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="124" t="s">
+      <c r="G7" s="62" t="s">
         <v>154</v>
       </c>
       <c r="H7" s="27"/>
@@ -2244,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
@@ -2272,78 +2272,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="65" t="str">
         <f>'Listado Objetos de Dominio'!$A$6</f>
         <v>Proyecto</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v>Este objeto de dominio es la razon principal de la aplicaicion y me describe un esfuerzo general para lograr un resultado</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2353,48 +2353,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="91" t="s">
+      <c r="L4" s="107" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="88"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2407,26 +2407,26 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
     </row>
     <row r="7" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="91" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="24">
@@ -2435,12 +2435,12 @@
       <c r="G7" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92" t="s">
+      <c r="J7" s="91"/>
+      <c r="K7" s="91" t="s">
         <v>47</v>
       </c>
       <c r="L7" s="44" t="s">
@@ -2448,41 +2448,41 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="24">
         <v>2</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="101"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="88"/>
       <c r="L8" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="24">
         <v>3</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93" t="s">
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="44" t="s">
@@ -2490,64 +2490,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="25"/>
       <c r="G10" s="37"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="45" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="27">
         <v>4</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
       <c r="L11" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="29">
         <v>5</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104" t="s">
+      <c r="H12" s="78"/>
+      <c r="I12" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="104"/>
+      <c r="J12" s="78"/>
       <c r="K12" s="33" t="s">
         <v>46</v>
       </c>
@@ -2556,20 +2556,20 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="61">
+      <c r="A13" s="83"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="92">
         <v>6</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="33" t="s">
         <v>51</v>
       </c>
@@ -2578,16 +2578,16 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="33" t="s">
         <v>64</v>
       </c>
@@ -2596,20 +2596,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="61">
+      <c r="A15" s="83"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="92">
         <v>7</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
       <c r="K15" s="33" t="s">
         <v>63</v>
       </c>
@@ -2618,16 +2618,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
       <c r="K16" s="34" t="s">
         <v>61</v>
       </c>
@@ -2636,28 +2636,28 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105">
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="85">
         <v>4</v>
       </c>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104" t="s">
+      <c r="H17" s="78"/>
+      <c r="I17" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="104"/>
+      <c r="J17" s="78"/>
       <c r="K17" s="36" t="s">
         <v>46</v>
       </c>
@@ -2666,16 +2666,16 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
       <c r="K18" s="33" t="s">
         <v>51</v>
       </c>
@@ -2684,20 +2684,20 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="25">
         <v>5</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
       <c r="K19" s="33" t="s">
         <v>64</v>
       </c>
@@ -2706,20 +2706,20 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="24">
         <v>6</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
       <c r="K20" s="33" t="s">
         <v>63</v>
       </c>
@@ -2728,20 +2728,20 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="25">
         <v>7</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
       <c r="K21" s="33" t="s">
         <v>61</v>
       </c>
@@ -2751,28 +2751,28 @@
       <c r="N21"/>
     </row>
     <row r="22" spans="1:14" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105">
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="85">
         <v>6</v>
       </c>
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104" t="s">
+      <c r="H22" s="78"/>
+      <c r="I22" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="104"/>
+      <c r="J22" s="78"/>
       <c r="K22" s="38" t="s">
         <v>46</v>
       </c>
@@ -2782,16 +2782,16 @@
       <c r="N22"/>
     </row>
     <row r="23" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
       <c r="K23" s="37" t="s">
         <v>59</v>
       </c>
@@ -2801,20 +2801,20 @@
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="61">
+      <c r="A24" s="83"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="92">
         <v>7</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
       <c r="K24" s="33" t="s">
         <v>51</v>
       </c>
@@ -2824,16 +2824,16 @@
       <c r="N24"/>
     </row>
     <row r="25" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
       <c r="K25" s="33" t="s">
         <v>64</v>
       </c>
@@ -2843,262 +2843,262 @@
       <c r="N25"/>
     </row>
     <row r="26" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="61">
+      <c r="A26" s="83"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="92">
         <v>8</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
       <c r="K26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="83" t="s">
+      <c r="L26" s="99" t="s">
         <v>65</v>
       </c>
       <c r="N26"/>
     </row>
     <row r="27" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
       <c r="K27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="81"/>
+      <c r="L27" s="97"/>
       <c r="N27"/>
     </row>
     <row r="28" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
       <c r="K28" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="82"/>
+      <c r="L28" s="98"/>
       <c r="N28"/>
     </row>
     <row r="29" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104" t="s">
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
       <c r="L29" s="50" t="s">
         <v>48</v>
       </c>
       <c r="N29"/>
     </row>
     <row r="30" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
       <c r="L30" s="44" t="s">
         <v>52</v>
       </c>
       <c r="N30"/>
     </row>
     <row r="31" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
       <c r="L31" s="44" t="s">
         <v>56</v>
       </c>
       <c r="N31"/>
     </row>
     <row r="32" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
       <c r="L32" s="44" t="s">
         <v>62</v>
       </c>
       <c r="N32"/>
     </row>
     <row r="33" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
       <c r="L33" s="49" t="s">
         <v>65</v>
       </c>
       <c r="N33"/>
     </row>
     <row r="34" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="104" t="s">
+      <c r="D34" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="105">
+      <c r="F34" s="85">
         <v>10</v>
       </c>
-      <c r="G34" s="104" t="s">
+      <c r="G34" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104" t="s">
+      <c r="H34" s="78"/>
+      <c r="I34" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="J34" s="104"/>
+      <c r="J34" s="78"/>
       <c r="K34" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="80" t="s">
+      <c r="L34" s="96" t="s">
         <v>62</v>
       </c>
       <c r="N34"/>
     </row>
     <row r="35" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
       <c r="K35" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="81"/>
+      <c r="L35" s="97"/>
       <c r="N35"/>
     </row>
     <row r="36" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
       <c r="K36" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="81"/>
+      <c r="L36" s="97"/>
       <c r="N36"/>
     </row>
     <row r="37" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="61">
+      <c r="A37" s="83"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="92">
         <v>11</v>
       </c>
-      <c r="G37" s="92" t="s">
+      <c r="G37" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
       <c r="K37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L37" s="81"/>
+      <c r="L37" s="97"/>
       <c r="N37"/>
     </row>
     <row r="38" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="97"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
       <c r="K38" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="L38" s="82"/>
+      <c r="L38" s="98"/>
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3280,32 +3280,49 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="A17:A21"/>
@@ -3322,52 +3339,35 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
     <mergeCell ref="I22:I28"/>
     <mergeCell ref="J22:J28"/>
     <mergeCell ref="H22:H28"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="L34:L38"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="H12:H16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -3382,9 +3382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43:B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,78 +3411,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="65" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>ListaTareas</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v xml:space="preserve">Este objeto de dominio contiene  informacion de las listas de trabajo que tienen los proyectos </v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -3492,48 +3492,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="118" t="s">
+      <c r="K4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="91" t="s">
+      <c r="L4" s="107" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="91"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -3546,36 +3546,36 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="91"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="107"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="24">
         <v>1</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61" t="s">
+      <c r="J7" s="92"/>
+      <c r="K7" s="92" t="s">
         <v>46</v>
       </c>
       <c r="L7" s="44" t="s">
@@ -3583,61 +3583,61 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="24">
         <v>2</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
       <c r="L8" s="44" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="24">
         <v>3</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="62"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
       <c r="L9" s="44" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="61">
+      <c r="A10" s="102"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="92">
         <v>4</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="61" t="s">
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="92" t="s">
         <v>83</v>
       </c>
       <c r="L10" s="45" t="s">
@@ -3646,60 +3646,60 @@
       <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
       <c r="L12" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="29">
         <v>4</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105" t="s">
+      <c r="H13" s="85"/>
+      <c r="I13" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="105"/>
+      <c r="J13" s="85"/>
       <c r="K13" s="30" t="s">
         <v>76</v>
       </c>
@@ -3708,20 +3708,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="25">
         <v>5</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="28" t="s">
         <v>83</v>
       </c>
@@ -3730,20 +3730,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="61">
+      <c r="A15" s="102"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="92">
         <v>6</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
       <c r="K15" s="28" t="s">
         <v>85</v>
       </c>
@@ -3752,16 +3752,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
       <c r="K16" s="28" t="s">
         <v>105</v>
       </c>
@@ -3770,16 +3770,16 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
       <c r="K17" s="28" t="s">
         <v>100</v>
       </c>
@@ -3788,16 +3788,16 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
       <c r="K18" s="14" t="s">
         <v>82</v>
       </c>
@@ -3805,29 +3805,29 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="105"/>
-      <c r="I19" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="85"/>
+      <c r="I19" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="104"/>
+      <c r="J19" s="78"/>
       <c r="K19" s="30" t="s">
         <v>76</v>
       </c>
@@ -3836,20 +3836,20 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="92"/>
+        <v>88</v>
+      </c>
+      <c r="H20" s="86"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="91"/>
       <c r="K20" s="28" t="s">
         <v>83</v>
       </c>
@@ -3858,20 +3858,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="106"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="92"/>
+        <v>81</v>
+      </c>
+      <c r="H21" s="86"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="28" t="s">
         <v>82</v>
       </c>
@@ -3880,20 +3880,20 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="61">
-        <v>7</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="106"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="92"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="92">
+        <v>6</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="86"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="91"/>
       <c r="K22" s="28" t="s">
         <v>85</v>
       </c>
@@ -3902,16 +3902,16 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="92"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="91"/>
       <c r="K23" s="28" t="s">
         <v>100</v>
       </c>
@@ -3920,16 +3920,16 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110"/>
       <c r="K24" s="14" t="s">
         <v>105</v>
       </c>
@@ -3938,19 +3938,19 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="109" t="s">
+      <c r="E25" s="116" t="s">
         <v>87</v>
       </c>
       <c r="F25" s="29">
@@ -3959,11 +3959,11 @@
       <c r="G25" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105" t="s">
+      <c r="H25" s="85"/>
+      <c r="I25" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="105"/>
+      <c r="J25" s="85"/>
       <c r="K25" s="30" t="s">
         <v>76</v>
       </c>
@@ -3972,20 +3972,20 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="110"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="25">
         <v>5</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
       <c r="K26" s="28" t="s">
         <v>83</v>
       </c>
@@ -3994,20 +3994,20 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="61">
+      <c r="A27" s="101"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="92">
         <v>6</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
       <c r="K27" s="28" t="s">
         <v>82</v>
       </c>
@@ -4016,18 +4016,18 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
       <c r="K28" s="28" t="s">
         <v>85</v>
       </c>
@@ -4036,16 +4036,16 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
       <c r="K29" s="28" t="s">
         <v>100</v>
       </c>
@@ -4055,16 +4055,16 @@
       <c r="M29" s="46"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
       <c r="K30" s="14" t="s">
         <v>105</v>
       </c>
@@ -4074,146 +4074,146 @@
       <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="29">
         <v>4</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105" t="s">
+      <c r="H31" s="85"/>
+      <c r="I31" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="105"/>
+      <c r="J31" s="85"/>
       <c r="K31" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="112" t="s">
+      <c r="L31" s="117" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="61">
+      <c r="A32" s="102"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="92">
         <v>6</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
       <c r="K32" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="113"/>
+      <c r="L32" s="118"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
       <c r="K33" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="L33" s="113"/>
+      <c r="L33" s="118"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
       <c r="K34" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L34" s="113"/>
+      <c r="L34" s="118"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
       <c r="K35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="L35" s="113"/>
+      <c r="L35" s="118"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="87"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
       <c r="K36" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L36" s="114"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="105" t="s">
+      <c r="D37" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="109" t="s">
+      <c r="E37" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="105">
+      <c r="F37" s="85">
         <v>8</v>
       </c>
-      <c r="G37" s="109" t="s">
+      <c r="G37" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105" t="s">
+      <c r="H37" s="85"/>
+      <c r="I37" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="105"/>
+      <c r="J37" s="85"/>
       <c r="K37" s="30" t="s">
         <v>76</v>
       </c>
@@ -4223,16 +4223,16 @@
       <c r="M37" s="46"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
       <c r="K38" s="28" t="s">
         <v>83</v>
       </c>
@@ -4241,16 +4241,16 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
       <c r="K39" s="28" t="s">
         <v>82</v>
       </c>
@@ -4259,16 +4259,16 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
       <c r="K40" s="28" t="s">
         <v>85</v>
       </c>
@@ -4277,16 +4277,16 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
       <c r="K41" s="28" t="s">
         <v>100</v>
       </c>
@@ -4295,16 +4295,16 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="87"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
       <c r="K42" s="14" t="s">
         <v>105</v>
       </c>
@@ -4313,24 +4313,24 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105" t="s">
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="J43" s="105"/>
+      <c r="J43" s="85"/>
       <c r="K43" s="32" t="s">
         <v>76</v>
       </c>
@@ -4339,16 +4339,16 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
       <c r="K44" s="28" t="s">
         <v>83</v>
       </c>
@@ -4357,16 +4357,16 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
       <c r="K45" s="28" t="s">
         <v>85</v>
       </c>
@@ -4375,16 +4375,16 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
       <c r="K46" s="28" t="s">
         <v>105</v>
       </c>
@@ -4393,18 +4393,18 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="106"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
       <c r="K47" s="28" t="s">
         <v>100</v>
       </c>
@@ -4413,16 +4413,16 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
       <c r="K48" s="28" t="s">
         <v>83</v>
       </c>
@@ -4431,26 +4431,41 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
+      <c r="A49" s="103"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
       <c r="K49" s="14" t="s">
         <v>82</v>
       </c>
       <c r="L49" s="16"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="G55" s="43"/>
+      <c r="G55"/>
       <c r="K55" s="1" t="s">
         <v>77</v>
       </c>
@@ -4459,25 +4474,25 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="G56" s="43"/>
+      <c r="G56"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57" s="43"/>
+      <c r="G57"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
-      <c r="G58" s="43"/>
+      <c r="G58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
-      <c r="G59" s="43"/>
+      <c r="G59"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D60"/>
@@ -4523,6 +4538,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -4539,81 +4629,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="I13:I18"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H25:H30"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="J43:J49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="I43:I49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -4654,78 +4669,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="65" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Tarea</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Este objeto de dominio contiene la información de una tarea que esta dentro de una listaTarea</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -4735,48 +4750,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -4789,35 +4804,35 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="24">
         <v>1</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="61"/>
+      <c r="J7" s="92"/>
       <c r="K7" s="12" t="s">
         <v>76</v>
       </c>
@@ -4826,20 +4841,20 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="24">
         <v>2</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
       <c r="K8" s="12" t="s">
         <v>119</v>
       </c>
@@ -4848,21 +4863,21 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="24">
         <v>3</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="61" t="s">
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="92" t="s">
         <v>134</v>
       </c>
       <c r="L9" s="45" t="s">
@@ -4870,83 +4885,83 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="61">
+      <c r="A10" s="102"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="92">
         <v>4</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="83" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="99" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="122"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="25">
         <v>4</v>
       </c>
@@ -4966,11 +4981,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="25">
         <v>5</v>
       </c>
@@ -4988,20 +5003,20 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="61">
+      <c r="A16" s="102"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="92">
         <v>6</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
       <c r="K16" s="28" t="s">
         <v>118</v>
       </c>
@@ -5010,16 +5025,16 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
       <c r="K17" s="51" t="s">
         <v>121</v>
       </c>
@@ -5028,16 +5043,16 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
       <c r="K18" s="51" t="s">
         <v>126</v>
       </c>
@@ -5046,60 +5061,60 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="61" t="s">
+      <c r="A19" s="102"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="L19" s="120" t="s">
+      <c r="L19" s="121" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="121"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="25">
         <v>4</v>
       </c>
       <c r="G21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="63" t="s">
+      <c r="H21" s="92"/>
+      <c r="I21" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="61"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="28" t="s">
         <v>112</v>
       </c>
@@ -5108,20 +5123,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
       <c r="F22" s="25">
         <v>5</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="106"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="106"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="86"/>
       <c r="K22" s="28" t="s">
         <v>119</v>
       </c>
@@ -5130,20 +5145,20 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="25">
         <v>6</v>
       </c>
       <c r="G23" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="106"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="106"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="86"/>
       <c r="K23" s="28" t="s">
         <v>118</v>
       </c>
@@ -5152,20 +5167,20 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="61">
+      <c r="A24" s="102"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="92">
         <v>7</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="G24" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="106"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="106"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="86"/>
       <c r="K24" s="51" t="s">
         <v>121</v>
       </c>
@@ -5174,16 +5189,16 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="106"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="86"/>
       <c r="K25" s="51" t="s">
         <v>126</v>
       </c>
@@ -5192,16 +5207,16 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="62"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="87"/>
       <c r="K26" s="28" t="s">
         <v>134</v>
       </c>
@@ -5210,19 +5225,19 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="113" t="s">
         <v>123</v>
       </c>
       <c r="F27" s="25">
@@ -5231,11 +5246,11 @@
       <c r="G27" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="63" t="s">
+      <c r="H27" s="92"/>
+      <c r="I27" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="63"/>
+      <c r="J27" s="113"/>
       <c r="K27" s="28" t="s">
         <v>112</v>
       </c>
@@ -5244,20 +5259,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="63"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="25">
         <v>5</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
       <c r="K28" s="28" t="s">
         <v>119</v>
       </c>
@@ -5266,20 +5281,20 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="61">
+      <c r="A29" s="111"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="92">
         <v>6</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="106"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
       <c r="K29" s="28" t="s">
         <v>118</v>
       </c>
@@ -5288,18 +5303,18 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
       <c r="K30" s="51" t="s">
         <v>121</v>
       </c>
@@ -5308,16 +5323,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
       <c r="K31" s="51" t="s">
         <v>126</v>
       </c>
@@ -5326,16 +5341,16 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
       <c r="K32" s="28" t="s">
         <v>134</v>
       </c>
@@ -5344,138 +5359,138 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="25">
         <v>4</v>
       </c>
       <c r="G33" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61" t="s">
+      <c r="H33" s="92"/>
+      <c r="I33" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="61"/>
+      <c r="J33" s="92"/>
       <c r="K33" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="119" t="s">
+      <c r="L33" s="124" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61">
+      <c r="A34" s="111"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92">
         <v>6</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
       <c r="K34" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="L34" s="119"/>
+      <c r="L34" s="124"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
       <c r="K35" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L35" s="119"/>
+      <c r="L35" s="124"/>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
       <c r="K36" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L36" s="119"/>
+      <c r="L36" s="124"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
       <c r="K37" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L37" s="119"/>
+      <c r="L37" s="124"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
       <c r="K38" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="L38" s="119"/>
+      <c r="L38" s="124"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61" t="s">
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="61"/>
+      <c r="J39" s="92"/>
       <c r="K39" s="28" t="s">
         <v>112</v>
       </c>
@@ -5484,16 +5499,16 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="106"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="86"/>
       <c r="K40" s="28" t="s">
         <v>119</v>
       </c>
@@ -5502,16 +5517,16 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="106"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="86"/>
       <c r="K41" s="28" t="s">
         <v>118</v>
       </c>
@@ -5520,16 +5535,16 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="106"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="86"/>
       <c r="K42" s="51" t="s">
         <v>121</v>
       </c>
@@ -5538,18 +5553,18 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="106"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="86"/>
       <c r="K43" s="51" t="s">
         <v>126</v>
       </c>
@@ -5558,16 +5573,16 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="106"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="86"/>
       <c r="K44" s="28" t="s">
         <v>134</v>
       </c>
@@ -5576,42 +5591,42 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="62"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="87"/>
       <c r="K45" s="28"/>
       <c r="L45" s="31"/>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
       <c r="F46" s="25">
         <v>4</v>
       </c>
       <c r="G46" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61" t="s">
+      <c r="H46" s="92"/>
+      <c r="I46" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J46" s="113" t="s">
         <v>144</v>
       </c>
       <c r="K46" s="28" t="s">
@@ -5622,20 +5637,20 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="28">
         <v>6</v>
       </c>
       <c r="G47" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="110"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="114"/>
       <c r="K47" s="28" t="s">
         <v>119</v>
       </c>
@@ -5644,20 +5659,20 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
       <c r="F48" s="28">
         <v>8</v>
       </c>
       <c r="G48" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="110"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="114"/>
       <c r="K48" s="28" t="s">
         <v>118</v>
       </c>
@@ -5666,20 +5681,20 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="61">
+      <c r="A49" s="102"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="92">
         <v>9</v>
       </c>
-      <c r="G49" s="63" t="s">
+      <c r="G49" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="110"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="114"/>
       <c r="K49" s="51" t="s">
         <v>121</v>
       </c>
@@ -5688,16 +5703,16 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="110"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="114"/>
       <c r="K50" s="51" t="s">
         <v>126</v>
       </c>
@@ -5706,16 +5721,16 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="85"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="64"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="120"/>
       <c r="K51" s="28" t="s">
         <v>134</v>
       </c>
@@ -5724,32 +5739,32 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="105" t="s">
+      <c r="D52" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="109" t="s">
+      <c r="E52" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="61">
+      <c r="F52" s="92">
         <v>10</v>
       </c>
-      <c r="G52" s="63" t="s">
+      <c r="G52" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="H52" s="61"/>
-      <c r="I52" s="63" t="s">
+      <c r="H52" s="92"/>
+      <c r="I52" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="J52" s="61"/>
+      <c r="J52" s="92"/>
       <c r="K52" s="28" t="s">
         <v>112</v>
       </c>
@@ -5758,16 +5773,16 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="86"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="106"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="86"/>
       <c r="K53" s="28" t="s">
         <v>119</v>
       </c>
@@ -5776,16 +5791,16 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
-      <c r="B54" s="110"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="106"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="86"/>
       <c r="K54" s="28" t="s">
         <v>118</v>
       </c>
@@ -5794,16 +5809,16 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
-      <c r="B55" s="110"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="106"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="86"/>
       <c r="K55" s="51" t="s">
         <v>121</v>
       </c>
@@ -5812,16 +5827,16 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="106"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="86"/>
       <c r="K56" s="51" t="s">
         <v>126</v>
       </c>
@@ -5830,16 +5845,16 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="87"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="107"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="93"/>
       <c r="K57" s="14" t="s">
         <v>134</v>
       </c>
@@ -5968,16 +5983,75 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="H52:H57"/>
-    <mergeCell ref="I52:I57"/>
-    <mergeCell ref="J52:J57"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="H7:H13"/>
+    <mergeCell ref="I7:I13"/>
+    <mergeCell ref="J7:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F24:F26"/>
     <mergeCell ref="F34:F38"/>
     <mergeCell ref="G34:G38"/>
     <mergeCell ref="J39:J45"/>
@@ -6002,75 +6076,16 @@
     <mergeCell ref="D39:D45"/>
     <mergeCell ref="E39:E45"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="H7:H13"/>
-    <mergeCell ref="I7:I13"/>
-    <mergeCell ref="J7:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="L33:L38"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="H52:H57"/>
+    <mergeCell ref="I52:I57"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -6112,78 +6127,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="65" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Tarea</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Este objeto de dominio contiene la información de una tarea que esta dentro de una listaTarea</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -6193,48 +6208,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -6247,35 +6262,35 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61">
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92">
         <v>1</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="61"/>
+      <c r="J7" s="92"/>
       <c r="K7" s="12" t="s">
         <v>76</v>
       </c>
@@ -6284,62 +6299,62 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
       <c r="K8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="119" t="s">
+      <c r="L8" s="124" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
       <c r="K9" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="L9" s="114"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105">
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85">
         <v>2</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="G10" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105" t="s">
+      <c r="H10" s="85"/>
+      <c r="I10" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="105"/>
+      <c r="J10" s="85"/>
       <c r="K10" s="56" t="s">
         <v>145</v>
       </c>
@@ -6348,58 +6363,58 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L11" s="119" t="s">
+      <c r="L11" s="124" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="L12" s="114"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="105"/>
+      <c r="J13" s="85"/>
       <c r="K13" s="56" t="s">
         <v>145</v>
       </c>
@@ -6411,15 +6426,15 @@
       <c r="A14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
       <c r="K14" s="14" t="s">
         <v>143</v>
       </c>
@@ -6464,19 +6479,24 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="L8:L9"/>
@@ -6493,24 +6513,19 @@
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{837A2162-633C-4BF6-9BC3-5394748CBF54}"/>
@@ -6553,78 +6568,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="65" t="str">
         <f>'Listado Objetos de Dominio'!$A$7</f>
         <v>MetricaProyecto</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Listado Objetos de Dominio'!$B$7</f>
         <v>Objeto de dominio que contiene los datos necesarios para realizar el analisis estadistico a proyecto</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -6634,48 +6649,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="73" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -6688,57 +6703,57 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="92">
         <v>1</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61" t="s">
+      <c r="H7" s="92"/>
+      <c r="I7" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61" t="s">
+      <c r="J7" s="92"/>
+      <c r="K7" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6783,6 +6798,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:L2"/>
@@ -6799,18 +6826,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BFCA4477-4C91-4098-BC41-5EA1FA1962BD}"/>
@@ -6822,21 +6837,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0DE5568C0AE848B2F225150E15E78E" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="643d399a24376eab49db33c80db032ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915fd109-ae29-4648-8de1-7f064f1d0fe5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a54904d818499acdea7742e4a0622bc" ns2:_="">
     <xsd:import namespace="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
@@ -6974,32 +6974,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D482EFAC-9BEA-400D-AF6E-6B063F3CF270}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7017,6 +7007,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>
